--- a/data-documentation/data-documentation.xlsx
+++ b/data-documentation/data-documentation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/837249f6e3f703fb/Documents/R/k-entry/data-documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lanel\OneDrive\Documents\R\k-entry\data-documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="14_{321F1ED9-2F30-49B2-8E53-D5D6687C82A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9A9E7D6E-C70D-46A9-A4C4-378F36545F15}"/>
+  <xr:revisionPtr revIDLastSave="175" documentId="113_{3FDA6900-4998-4D14-B81F-B921EDAF6AC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5DAB02C8-A6D0-43BB-AD00-45E3D55D18D1}"/>
   <bookViews>
-    <workbookView xWindow="4935" yWindow="510" windowWidth="15420" windowHeight="9480" activeTab="1" xr2:uid="{32B1247A-B1EE-4DD4-8B74-E50A379266F9}"/>
+    <workbookView xWindow="1455" yWindow="1230" windowWidth="11130" windowHeight="9480" firstSheet="1" activeTab="1" xr2:uid="{32B1247A-B1EE-4DD4-8B74-E50A379266F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Census Workflow" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="650">
   <si>
     <t>Variable name</t>
   </si>
@@ -639,9 +639,6 @@
     <t>School identification number</t>
   </si>
   <si>
-    <t>Reported location state</t>
-  </si>
-  <si>
     <t>NCES</t>
   </si>
   <si>
@@ -654,9 +651,6 @@
     <t>Metropolitan or Micropolitan Statistical Area Indicator</t>
   </si>
   <si>
-    <t>County FIPS</t>
-  </si>
-  <si>
     <t>Latitiude of school location</t>
   </si>
   <si>
@@ -1737,9 +1731,6 @@
     <t>https://datacenter.kidscount.org/data/tables/8307-child-population-by-race?loc=39&amp;loct=5#detailed/5/5343-5378/false/37,871,870,573,869,36,868,867,133/1,2,1310,142,4370,4371,3/16885</t>
   </si>
   <si>
-    <t>Number of children exiting foster care during the year</t>
-  </si>
-  <si>
     <t>https://datacenter.kidscount.org/data/tables/8319-children-exiting-foster-care?loc=39&amp;loct=5#detailed/5/5343-5378/false/871,870,573,869,36,868,867/any/16896</t>
   </si>
   <si>
@@ -1768,13 +1759,241 @@
   </si>
   <si>
     <t>Percent of households at 1 to 2 times the national poverty level</t>
+  </si>
+  <si>
+    <t>County</t>
+  </si>
+  <si>
+    <t>This is in each linked source of kidscount data</t>
+  </si>
+  <si>
+    <t>https://datacenter.kidscount.org/data/customreports/5343,5344,5345,5346,5347,5348,5349,5350,5351,5352,5353,5354,5355,5356,5357,5358,5359,5360,5361,5362,5363,5364,5365,5366,5367,5368,5369,5370,5371,5372,5373,5374,5375,5376,5377,5378/any</t>
+  </si>
+  <si>
+    <t>Percent of households at 2 times the national poverty level</t>
+  </si>
+  <si>
+    <t>https://datacenter.kidscount.org/data/tables/8318-percentage-of-children-in-foster-care?loc=39&amp;loct=5#detailed/5/5343-5378/false/871,870,573,869,36,868,867/any/16895</t>
+  </si>
+  <si>
+    <t>https://datacenter.kidscount.org/data/tables/8338-students-eligible-for-free-or-reduced-lunch?loc=39&amp;loct=5#detailed/5/5343-5378/false/1740,1639,1600,1536,1460,1249,1120,1024/any/16922</t>
+  </si>
+  <si>
+    <t>Percentage of total population represented by Hispanics.</t>
+  </si>
+  <si>
+    <t>Percentage of child population represented by Hispanics.</t>
+  </si>
+  <si>
+    <t>Percentage of total population represented by Asians.</t>
+  </si>
+  <si>
+    <t>Percentage of child population represented by Asians.</t>
+  </si>
+  <si>
+    <t>Percentage of total population represented by Non-hispanic Black people.</t>
+  </si>
+  <si>
+    <t>Percentage of child population represented by Non-hispanic Black children.</t>
+  </si>
+  <si>
+    <t>Percentage of total population represented by non-Hispanic American Indians or Alaska Natives.</t>
+  </si>
+  <si>
+    <t>Percentage of child population represented by non-Hispanic American Indians or Alaska Natives.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children spending at least one day in foster care as a percentage of the child population (ages 0 to 17) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of public school students eligible for free or reduced price lunches. Eligibility criteria is family income less than 185% of the federal poverty level. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This variable appears to be mis-labeled or in need of processing to percentage.     Values correspond to linked variable:   Number of children exiting foster care during the year      </t>
+  </si>
+  <si>
+    <t>Percentage of total population represented by non-Hispanic bi-racial and multi-racial people.</t>
+  </si>
+  <si>
+    <t>Percentage of child population represented by  non-Hispanic bi-racial and multi-racial children.</t>
+  </si>
+  <si>
+    <t>Percentage of total population represented by non-Hispanic white people.</t>
+  </si>
+  <si>
+    <t>Percentage of child population represented by  non-Hispanic white children.</t>
+  </si>
+  <si>
+    <t>School name</t>
+  </si>
+  <si>
+    <t>ODE assigned Institution Identifier for the Attending District.  The District where the student is receiving instruction and where state assessments are administered.</t>
+  </si>
+  <si>
+    <t>ODE assigned Institution Identifier for the Attending School.  The School where the student is receiving instruction and where state assessments are administered.</t>
+  </si>
+  <si>
+    <t>Early Math Score</t>
+  </si>
+  <si>
+    <t>math_score</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>OKA</t>
+  </si>
+  <si>
+    <t>EMa_TOTscore</t>
+  </si>
+  <si>
+    <t>ls</t>
+  </si>
+  <si>
+    <t>ln</t>
+  </si>
+  <si>
+    <t>OKA section of data-combine.R</t>
+  </si>
+  <si>
+    <t>BRT OKA</t>
+  </si>
+  <si>
+    <t>English letter sounds score</t>
+  </si>
+  <si>
+    <t>English letter names score</t>
+  </si>
+  <si>
+    <t>ssid</t>
+  </si>
+  <si>
+    <t>RptChkDigitStdntID</t>
+  </si>
+  <si>
+    <t>aDistID</t>
+  </si>
+  <si>
+    <t>aSchlID</t>
+  </si>
+  <si>
+    <t>Percentage of student population represented by American Indian children</t>
+  </si>
+  <si>
+    <t>Percentage of student population represented by Asian-American children</t>
+  </si>
+  <si>
+    <t>Percentage of student population represented by Hispanic children</t>
+  </si>
+  <si>
+    <t>Percentage of student population with race/ethnicity info missing.</t>
+  </si>
+  <si>
+    <t>Percentage of student population represented by non-Hispanic white children</t>
+  </si>
+  <si>
+    <t>Percentage of student population represented by non-Hispanic bi-racial and multi-racial children</t>
+  </si>
+  <si>
+    <t>Percentage of student population represented by non-Hispanic Black children</t>
+  </si>
+  <si>
+    <t>Current Secure Student Identifier (SSID).</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>self_reg_av</t>
+  </si>
+  <si>
+    <t>al_s_ravg</t>
+  </si>
+  <si>
+    <t>Average rating on CBRS self-regulation items</t>
+  </si>
+  <si>
+    <t>al_i_savg</t>
+  </si>
+  <si>
+    <t>interpersonal</t>
+  </si>
+  <si>
+    <t>Average rating on CBRS interpersonal skills items</t>
+  </si>
+  <si>
+    <t>ln_uppercase_score</t>
+  </si>
+  <si>
+    <t>ln_lowercase_score</t>
+  </si>
+  <si>
+    <t>English uppercase  letter names score</t>
+  </si>
+  <si>
+    <t>English lowercase letter names score</t>
+  </si>
+  <si>
+    <t>Reported location state, abbreviation</t>
+  </si>
+  <si>
+    <t>Reported location state, full name</t>
+  </si>
+  <si>
+    <t>FIPS county code</t>
+  </si>
+  <si>
+    <t>FIPS state code</t>
+  </si>
+  <si>
+    <t>local education agency (school dstrict) name</t>
+  </si>
+  <si>
+    <t>State assigned local education agency (school dstrict) ID</t>
+  </si>
+  <si>
+    <t>assigned local education agency (school dstrict) ID</t>
+  </si>
+  <si>
+    <t>flag. Source of leaid?</t>
+  </si>
+  <si>
+    <t>State assigned school ID</t>
+  </si>
+  <si>
+    <t>Type of school</t>
+  </si>
+  <si>
+    <t>BRT nces-dataprep.R</t>
+  </si>
+  <si>
+    <t>flag. Which population? Student, area, etc.</t>
+  </si>
+  <si>
+    <t>Proportion of __ with gender info missing</t>
+  </si>
+  <si>
+    <t>Proportion of __ identified as female</t>
+  </si>
+  <si>
+    <t>Percentage of student population represented by Native Hawaiian or Other Pacific Islander children</t>
+  </si>
+  <si>
+    <t>flag. Eligible or receiving?</t>
+  </si>
+  <si>
+    <t>Proportion of student population __ free or reduced price lunch.</t>
+  </si>
+  <si>
+    <t>Total school enrollment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1835,6 +2054,17 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1925,11 +2155,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1982,9 +2213,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2000,10 +2228,21 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{BA825304-9BFB-4D07-BB24-1C708FAFC967}"/>
   </cellStyles>
   <dxfs count="18">
     <dxf>
@@ -2090,8 +2329,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1F9CE00-A203-483B-9246-547B8436073A}" name="Table1" displayName="Table1" ref="C1:J132" totalsRowCount="1" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="C1:J131" xr:uid="{025E3E43-24B7-41DF-87CB-31159C282688}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1F9CE00-A203-483B-9246-547B8436073A}" name="Table1" displayName="Table1" ref="C1:J141" totalsRowCount="1" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="C1:J140" xr:uid="{025E3E43-24B7-41DF-87CB-31159C282688}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{D440E552-99CF-44C9-9C07-DEEEDEFF0DFC}" name="Variable name" totalsRowFunction="count" dataDxfId="15" totalsRowDxfId="7"/>
     <tableColumn id="2" xr3:uid="{64A9A152-453D-4943-AD2F-EB76991B47B1}" name="Description" totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="6"/>
@@ -2434,36 +2673,36 @@
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2" spans="2:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H2" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="J2" s="17" t="s">
         <v>439</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>440</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
@@ -2472,24 +2711,24 @@
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="H3" s="17" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>210</v>
+        <v>207</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>208</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
@@ -2505,19 +2744,19 @@
     </row>
     <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>212</v>
+        <v>209</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>210</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
@@ -2533,19 +2772,19 @@
     </row>
     <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>214</v>
+        <v>211</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>212</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -2561,22 +2800,22 @@
     </row>
     <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>216</v>
+        <v>213</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>214</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I7" t="str">
         <f>B12</f>
@@ -2589,19 +2828,19 @@
     </row>
     <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>218</v>
+        <v>215</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>216</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H8" t="s">
         <v>18</v>
@@ -2617,19 +2856,19 @@
     </row>
     <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>220</v>
+        <v>217</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>218</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H9" t="s">
         <v>20</v>
@@ -2645,19 +2884,19 @@
     </row>
     <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>222</v>
+        <v>219</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>220</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H10" t="s">
         <v>21</v>
@@ -2673,19 +2912,19 @@
     </row>
     <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>222</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H11" t="s">
         <v>22</v>
@@ -2701,19 +2940,19 @@
     </row>
     <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>226</v>
+        <v>223</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>224</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G12" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H12" t="s">
         <v>23</v>
@@ -2729,19 +2968,19 @@
     </row>
     <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>228</v>
+        <v>225</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>226</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G13" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H13" t="s">
         <v>24</v>
@@ -2757,19 +2996,19 @@
     </row>
     <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>230</v>
+        <v>227</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>228</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G14" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H14" t="s">
         <v>25</v>
@@ -2785,19 +3024,19 @@
     </row>
     <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>232</v>
+        <v>229</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>230</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H15" t="s">
         <v>26</v>
@@ -2813,19 +3052,19 @@
     </row>
     <row r="16" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>234</v>
+        <v>231</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>232</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G16" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H16" t="s">
         <v>27</v>
@@ -2841,19 +3080,19 @@
     </row>
     <row r="17" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>236</v>
+        <v>233</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>234</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G17" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H17" t="s">
         <v>28</v>
@@ -2869,19 +3108,19 @@
     </row>
     <row r="18" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>238</v>
+        <v>235</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>236</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G18" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H18" t="s">
         <v>29</v>
@@ -2897,19 +3136,19 @@
     </row>
     <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>240</v>
+        <v>237</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>238</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G19" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H19" t="s">
         <v>30</v>
@@ -2925,19 +3164,19 @@
     </row>
     <row r="20" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>242</v>
+        <v>239</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>240</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G20" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H20" t="s">
         <v>31</v>
@@ -2953,25 +3192,25 @@
     </row>
     <row r="21" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>244</v>
+        <v>241</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>242</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H21" t="s">
         <v>32</v>
       </c>
       <c r="I21" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J21" t="str">
         <f>B31</f>
@@ -2980,25 +3219,25 @@
     </row>
     <row r="22" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>246</v>
+        <v>243</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>244</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G22" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H22" t="s">
         <v>33</v>
       </c>
       <c r="I22" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J22" t="str">
         <f>B31</f>
@@ -3007,25 +3246,25 @@
     </row>
     <row r="23" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>248</v>
+        <v>245</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G23" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H23" t="s">
         <v>34</v>
       </c>
       <c r="I23" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J23" t="str">
         <f>B31</f>
@@ -3034,25 +3273,25 @@
     </row>
     <row r="24" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>250</v>
+        <v>247</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>248</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G24" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H24" t="s">
         <v>35</v>
       </c>
       <c r="I24" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J24" t="str">
         <f>B31</f>
@@ -3061,25 +3300,25 @@
     </row>
     <row r="25" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>252</v>
+        <v>249</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>250</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G25" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H25" t="s">
         <v>36</v>
       </c>
       <c r="I25" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J25" t="str">
         <f>B31</f>
@@ -3088,25 +3327,25 @@
     </row>
     <row r="26" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>254</v>
+        <v>251</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>252</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G26" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H26" t="s">
         <v>37</v>
       </c>
       <c r="I26" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J26" t="str">
         <f>B31</f>
@@ -3115,25 +3354,25 @@
     </row>
     <row r="27" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>256</v>
+        <v>253</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>254</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G27" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H27" t="s">
         <v>38</v>
       </c>
       <c r="I27" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J27" t="str">
         <f>B31</f>
@@ -3142,25 +3381,25 @@
     </row>
     <row r="28" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>258</v>
+        <v>255</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>256</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G28" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H28" t="s">
         <v>39</v>
       </c>
       <c r="I28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J28" t="str">
         <f>B31</f>
@@ -3169,25 +3408,25 @@
     </row>
     <row r="29" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>260</v>
+        <v>257</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>258</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G29" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H29" t="s">
         <v>40</v>
       </c>
       <c r="I29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J29" t="str">
         <f>B31</f>
@@ -3196,25 +3435,25 @@
     </row>
     <row r="30" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>262</v>
+        <v>259</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>260</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H30" t="s">
         <v>41</v>
       </c>
       <c r="I30" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J30" t="str">
         <f>B31</f>
@@ -3223,25 +3462,25 @@
     </row>
     <row r="31" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>264</v>
+        <v>261</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>262</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G31" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H31" t="s">
         <v>42</v>
       </c>
       <c r="I31" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J31" t="str">
         <f>B31</f>
@@ -3250,25 +3489,25 @@
     </row>
     <row r="32" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>266</v>
+        <v>263</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>264</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G32" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H32" t="s">
         <v>43</v>
       </c>
       <c r="I32" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J32" t="str">
         <f>B31</f>
@@ -3277,25 +3516,25 @@
     </row>
     <row r="33" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>268</v>
+        <v>265</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>266</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G33" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H33" t="s">
         <v>44</v>
       </c>
       <c r="I33" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J33" t="str">
         <f>B31</f>
@@ -3304,25 +3543,25 @@
     </row>
     <row r="34" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>270</v>
+        <v>267</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>268</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G34" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H34" t="s">
         <v>45</v>
       </c>
       <c r="I34" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J34" t="str">
         <f>B31</f>
@@ -3331,25 +3570,25 @@
     </row>
     <row r="35" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>272</v>
+        <v>269</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>270</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G35" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H35" t="s">
         <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J35" t="str">
         <f>B31</f>
@@ -3358,25 +3597,25 @@
     </row>
     <row r="36" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>274</v>
+        <v>271</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>272</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G36" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H36" t="s">
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J36" t="str">
         <f>B31</f>
@@ -3385,25 +3624,25 @@
     </row>
     <row r="37" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>276</v>
+        <v>273</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>274</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G37" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H37" t="s">
         <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J37" t="str">
         <f>B31</f>
@@ -3412,25 +3651,25 @@
     </row>
     <row r="38" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>278</v>
+        <v>275</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>276</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G38" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H38" t="s">
         <v>49</v>
       </c>
       <c r="I38" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J38" t="str">
         <f>B31</f>
@@ -3439,25 +3678,25 @@
     </row>
     <row r="39" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>280</v>
+        <v>277</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>278</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G39" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H39" t="s">
         <v>50</v>
       </c>
       <c r="I39" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J39" t="str">
         <f>B31</f>
@@ -3466,25 +3705,25 @@
     </row>
     <row r="40" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>282</v>
+        <v>279</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>280</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G40" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H40" t="s">
         <v>51</v>
       </c>
       <c r="I40" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J40" t="str">
         <f>B31</f>
@@ -3493,25 +3732,25 @@
     </row>
     <row r="41" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>284</v>
+        <v>281</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>282</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G41" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H41" t="s">
         <v>52</v>
       </c>
       <c r="I41" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J41" t="str">
         <f>B31</f>
@@ -3520,25 +3759,25 @@
     </row>
     <row r="42" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>286</v>
+        <v>283</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>284</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G42" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H42" t="s">
         <v>53</v>
       </c>
       <c r="I42" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J42" t="str">
         <f>B31</f>
@@ -3547,25 +3786,25 @@
     </row>
     <row r="43" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>288</v>
+        <v>285</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>286</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G43" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H43" t="s">
         <v>54</v>
       </c>
       <c r="I43" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J43" t="str">
         <f>B31</f>
@@ -3574,25 +3813,25 @@
     </row>
     <row r="44" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>290</v>
+        <v>287</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>288</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G44" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H44" t="s">
         <v>55</v>
       </c>
       <c r="I44" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J44" t="str">
         <f>B31</f>
@@ -3601,25 +3840,25 @@
     </row>
     <row r="45" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>292</v>
+        <v>289</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>290</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G45" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H45" t="s">
         <v>55</v>
       </c>
       <c r="I45" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J45" t="str">
         <f>B31</f>
@@ -3628,25 +3867,25 @@
     </row>
     <row r="46" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>292</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G46" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H46" t="s">
         <v>56</v>
       </c>
       <c r="I46" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J46" t="str">
         <f>B31</f>
@@ -3655,25 +3894,25 @@
     </row>
     <row r="47" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>296</v>
+        <v>293</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>294</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G47" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H47" t="s">
         <v>57</v>
       </c>
       <c r="I47" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J47" t="str">
         <f>B31</f>
@@ -3682,25 +3921,25 @@
     </row>
     <row r="48" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>298</v>
+        <v>295</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G48" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H48" t="s">
         <v>58</v>
       </c>
       <c r="I48" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J48" t="str">
         <f>B16</f>
@@ -3709,25 +3948,25 @@
     </row>
     <row r="49" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>300</v>
+        <v>297</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>298</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G49" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H49" t="s">
         <v>59</v>
       </c>
       <c r="I49" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J49" t="str">
         <f>B4</f>
@@ -3736,25 +3975,25 @@
     </row>
     <row r="50" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>302</v>
+        <v>299</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>300</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G50" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H50" t="s">
         <v>60</v>
       </c>
       <c r="I50" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J50" t="str">
         <f>B4</f>
@@ -3763,25 +4002,25 @@
     </row>
     <row r="51" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>304</v>
+        <v>301</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>302</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G51" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H51" t="s">
         <v>61</v>
       </c>
       <c r="I51" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J51" t="str">
         <f>B4</f>
@@ -3790,119 +4029,119 @@
     </row>
     <row r="52" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>306</v>
+        <v>303</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>304</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="53" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>308</v>
+        <v>305</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>306</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="54" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>310</v>
+        <v>307</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>308</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="55" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>312</v>
+        <v>309</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>310</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="56" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="C56" s="22" t="s">
-        <v>314</v>
+        <v>311</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>312</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="57" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>316</v>
+        <v>313</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>314</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="58" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>318</v>
+        <v>315</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>316</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="E58" s="23" t="s">
-        <v>386</v>
+        <v>322</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="59" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>320</v>
+        <v>317</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>318</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="E59" s="23" t="s">
-        <v>388</v>
+        <v>385</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="60" spans="2:10" ht="21" x14ac:dyDescent="0.25">
       <c r="B60" s="15" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -3912,11 +4151,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43B2CFC-DE45-490E-BEC9-4814321496D3}">
-  <dimension ref="B1:K132"/>
+  <dimension ref="B1:K141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G134" sqref="G134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3954,7 +4193,7 @@
         <v>184</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
@@ -4016,15 +4255,15 @@
         <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="30" x14ac:dyDescent="0.25">
@@ -4038,15 +4277,15 @@
         <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="K6" s="19" t="s">
         <v>198</v>
@@ -4063,15 +4302,15 @@
         <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="30" x14ac:dyDescent="0.25">
@@ -4085,15 +4324,15 @@
         <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="30" x14ac:dyDescent="0.25">
@@ -4107,15 +4346,15 @@
         <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
@@ -4126,15 +4365,17 @@
         <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="24"/>
+        <v>570</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="F10" s="23"/>
       <c r="G10" s="1"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="30" x14ac:dyDescent="0.25">
@@ -4145,19 +4386,21 @@
         <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="24" t="s">
-        <v>562</v>
+        <v>570</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>560</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="30" x14ac:dyDescent="0.25">
@@ -4165,19 +4408,21 @@
         <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="E12" s="1"/>
+        <v>513</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="F12" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="30" x14ac:dyDescent="0.25">
@@ -4185,19 +4430,21 @@
         <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="E13" s="1"/>
+        <v>514</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="F13" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="30" x14ac:dyDescent="0.25">
@@ -4205,19 +4452,21 @@
         <v>24</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="E14" s="1"/>
+        <v>515</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="F14" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="30" x14ac:dyDescent="0.25">
@@ -4225,19 +4474,21 @@
         <v>25</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="E15" s="1"/>
+        <v>516</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="F15" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="30" x14ac:dyDescent="0.25">
@@ -4245,19 +4496,21 @@
         <v>26</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="E16" s="1"/>
+        <v>519</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="F16" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="3:10" ht="30" x14ac:dyDescent="0.25">
@@ -4265,19 +4518,21 @@
         <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="E17" s="1"/>
+        <v>520</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="F17" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="3:10" ht="30" x14ac:dyDescent="0.25">
@@ -4285,19 +4540,21 @@
         <v>28</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="E18" s="1"/>
+        <v>518</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="F18" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19" spans="3:10" ht="30" x14ac:dyDescent="0.25">
@@ -4305,19 +4562,21 @@
         <v>29</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="E19" s="1"/>
+        <v>517</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="F19" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="3:10" ht="30" x14ac:dyDescent="0.25">
@@ -4325,19 +4584,21 @@
         <v>30</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="E20" s="1"/>
+        <v>521</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="F20" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="3:10" ht="30" x14ac:dyDescent="0.25">
@@ -4345,19 +4606,21 @@
         <v>31</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="E21" s="1"/>
+        <v>522</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="F21" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="22" spans="3:10" ht="30" x14ac:dyDescent="0.25">
@@ -4365,19 +4628,21 @@
         <v>32</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="E22" s="1"/>
+        <v>524</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="F22" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="23" spans="3:10" ht="30" x14ac:dyDescent="0.25">
@@ -4385,19 +4650,21 @@
         <v>33</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="E23" s="1"/>
+        <v>525</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="F23" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="24" spans="3:10" ht="30" x14ac:dyDescent="0.25">
@@ -4405,19 +4672,21 @@
         <v>34</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="E24" s="1"/>
+        <v>526</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="F24" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="25" spans="3:10" ht="30" x14ac:dyDescent="0.25">
@@ -4425,19 +4694,21 @@
         <v>35</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="E25" s="1"/>
+        <v>527</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="F25" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="26" spans="3:10" ht="30" x14ac:dyDescent="0.25">
@@ -4445,19 +4716,21 @@
         <v>36</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="E26" s="1"/>
+        <v>528</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="F26" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="27" spans="3:10" ht="30" x14ac:dyDescent="0.25">
@@ -4465,19 +4738,21 @@
         <v>37</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="E27" s="1"/>
+        <v>534</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="F27" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="28" spans="3:10" ht="30" x14ac:dyDescent="0.25">
@@ -4485,19 +4760,21 @@
         <v>38</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="E28" s="1"/>
+        <v>529</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="F28" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="29" spans="3:10" ht="30" x14ac:dyDescent="0.25">
@@ -4505,19 +4782,21 @@
         <v>39</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="E29" s="1"/>
+        <v>530</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="F29" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="30" spans="3:10" ht="30" x14ac:dyDescent="0.25">
@@ -4525,19 +4804,21 @@
         <v>40</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="E30" s="1"/>
+        <v>531</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="F30" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31" spans="3:10" ht="30" x14ac:dyDescent="0.25">
@@ -4545,19 +4826,21 @@
         <v>41</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="E31" s="1"/>
+        <v>532</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="F31" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="32" spans="3:10" ht="30" x14ac:dyDescent="0.25">
@@ -4565,19 +4848,21 @@
         <v>42</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="E32" s="1"/>
+        <v>533</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="F32" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="33" spans="3:10" ht="30" x14ac:dyDescent="0.25">
@@ -4585,19 +4870,21 @@
         <v>43</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="E33" s="1"/>
+        <v>535</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="F33" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="34" spans="3:10" ht="30" x14ac:dyDescent="0.25">
@@ -4605,19 +4892,21 @@
         <v>44</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="E34" s="1"/>
+        <v>536</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="F34" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="35" spans="3:10" ht="30" x14ac:dyDescent="0.25">
@@ -4625,19 +4914,21 @@
         <v>45</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="E35" s="1"/>
+        <v>537</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="F35" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="36" spans="3:10" ht="30" x14ac:dyDescent="0.25">
@@ -4645,19 +4936,21 @@
         <v>46</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="E36" s="1"/>
+        <v>548</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="F36" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="37" spans="3:10" ht="30" x14ac:dyDescent="0.25">
@@ -4665,19 +4958,21 @@
         <v>47</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="E37" s="1"/>
+        <v>547</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="F37" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="38" spans="3:10" ht="30" x14ac:dyDescent="0.25">
@@ -4685,19 +4980,21 @@
         <v>48</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="E38" s="1"/>
+        <v>546</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="F38" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="39" spans="3:10" ht="30" x14ac:dyDescent="0.25">
@@ -4705,19 +5002,21 @@
         <v>49</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="E39" s="1"/>
+        <v>545</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="F39" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="40" spans="3:10" ht="30" x14ac:dyDescent="0.25">
@@ -4725,19 +5024,21 @@
         <v>50</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="E40" s="1"/>
+        <v>544</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="F40" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="41" spans="3:10" ht="30" x14ac:dyDescent="0.25">
@@ -4745,19 +5046,21 @@
         <v>51</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="E41" s="1"/>
+        <v>543</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="F41" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="42" spans="3:10" ht="30" x14ac:dyDescent="0.25">
@@ -4765,19 +5068,21 @@
         <v>52</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="E42" s="1"/>
+        <v>542</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="F42" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="43" spans="3:10" ht="30" x14ac:dyDescent="0.25">
@@ -4785,19 +5090,21 @@
         <v>53</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="E43" s="1"/>
+        <v>541</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="F43" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="44" spans="3:10" ht="30" x14ac:dyDescent="0.25">
@@ -4805,19 +5112,21 @@
         <v>54</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="E44" s="1"/>
+        <v>540</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="F44" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="45" spans="3:10" ht="30" x14ac:dyDescent="0.25">
@@ -4825,19 +5134,21 @@
         <v>55</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="E45" s="1"/>
+        <v>539</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="F45" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="46" spans="3:10" ht="30" x14ac:dyDescent="0.25">
@@ -4845,19 +5156,21 @@
         <v>56</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="E46" s="1"/>
+        <v>538</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="F46" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="47" spans="3:10" ht="30" x14ac:dyDescent="0.25">
@@ -4865,19 +5178,21 @@
         <v>57</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="E47" s="1"/>
+        <v>523</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="F47" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="48" spans="3:10" ht="45" x14ac:dyDescent="0.25">
@@ -4885,19 +5200,21 @@
         <v>58</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="E48" s="1"/>
+        <v>571</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="F48" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="J48" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="30" x14ac:dyDescent="0.25">
@@ -4905,19 +5222,21 @@
         <v>59</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="E49" s="1"/>
+        <v>572</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="F49" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="50" spans="2:10" ht="30" x14ac:dyDescent="0.25">
@@ -4925,37 +5244,43 @@
         <v>60</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="E50" s="1"/>
+        <v>573</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="F50" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
       <c r="J50" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="51" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C51" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="F51" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
       <c r="J51" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="52" spans="2:10" ht="30" x14ac:dyDescent="0.25">
@@ -4971,7 +5296,9 @@
       <c r="F52" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>575</v>
+      </c>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
       <c r="J52" s="1"/>
@@ -4989,7 +5316,9 @@
       <c r="F53" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G53" s="1"/>
+      <c r="G53" s="1" t="s">
+        <v>576</v>
+      </c>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
       <c r="J53" s="1"/>
@@ -5059,7 +5388,7 @@
         <v>70</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>12</v>
@@ -5068,7 +5397,7 @@
         <v>64</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
@@ -5081,8 +5410,8 @@
       <c r="C58" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D58" s="24" t="s">
-        <v>572</v>
+      <c r="D58" s="23" t="s">
+        <v>569</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>12</v>
@@ -5091,7 +5420,7 @@
         <v>64</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
@@ -5122,7 +5451,7 @@
         <v>73</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>12</v>
@@ -5220,121 +5549,121 @@
       <c r="I64" s="7"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="C65" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>462</v>
+      <c r="D65" s="1" t="s">
+        <v>586</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="C66" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>469</v>
+        <v>587</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
       <c r="J66" s="1"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="C67" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>463</v>
+        <v>582</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="C68" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>470</v>
+        <v>583</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
       <c r="J68" s="1"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="C69" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>464</v>
+        <v>584</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="C70" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>471</v>
+        <v>585</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
@@ -5370,8 +5699,8 @@
       <c r="C72" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D72" s="4" t="s">
-        <v>566</v>
+      <c r="D72" s="26" t="s">
+        <v>590</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>12</v>
@@ -5380,7 +5709,7 @@
         <v>64</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="H72" s="11" t="s">
         <v>180</v>
@@ -5401,51 +5730,55 @@
         <v>12</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>179</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="J73" s="1"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="C74" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>508</v>
+        <v>588</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="G74" s="1"/>
+        <v>512</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>578</v>
+      </c>
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
       <c r="J74" s="1"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:10" ht="75" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>480</v>
+      <c r="D75" s="9" t="s">
+        <v>589</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="G75" s="1"/>
+        <v>512</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>579</v>
+      </c>
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
       <c r="J75" s="1"/>
@@ -5461,7 +5794,7 @@
         <v>12</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>168</v>
@@ -5481,7 +5814,7 @@
         <v>12</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>166</v>
@@ -5501,7 +5834,7 @@
         <v>12</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>169</v>
@@ -5521,7 +5854,7 @@
         <v>12</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>172</v>
@@ -5530,41 +5863,41 @@
       <c r="I79" s="7"/>
       <c r="J79" s="1"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="C80" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>564</v>
+        <v>512</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>562</v>
       </c>
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
       <c r="J80" s="1"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="C81" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>468</v>
+        <v>581</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
@@ -5581,7 +5914,7 @@
         <v>12</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>195</v>
@@ -5601,7 +5934,7 @@
         <v>12</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>174</v>
@@ -5621,7 +5954,7 @@
         <v>12</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>176</v>
@@ -5630,41 +5963,41 @@
       <c r="I84" s="7"/>
       <c r="J84" s="1"/>
     </row>
-    <row r="85" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="C85" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>466</v>
+        <v>591</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H85" s="7"/>
       <c r="I85" s="7"/>
       <c r="J85" s="1"/>
     </row>
-    <row r="86" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="C86" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>473</v>
+        <v>592</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
@@ -5681,7 +6014,7 @@
         <v>12</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>190</v>
@@ -5704,7 +6037,7 @@
         <v>12</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>192</v>
@@ -5713,41 +6046,41 @@
       <c r="I88" s="7"/>
       <c r="J88" s="1"/>
     </row>
-    <row r="89" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="C89" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H89" s="7"/>
       <c r="I89" s="7"/>
       <c r="J89" s="1"/>
     </row>
-    <row r="90" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="C90" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H90" s="7"/>
       <c r="I90" s="7"/>
@@ -5764,7 +6097,7 @@
         <v>12</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>188</v>
@@ -5784,7 +6117,7 @@
         <v>12</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>186</v>
@@ -5798,54 +6131,54 @@
         <v>106</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="7"/>
       <c r="I93" s="7"/>
       <c r="J93" s="1"/>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="C94" s="1" t="s">
         <v>107</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>467</v>
+        <v>593</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H94" s="7"/>
       <c r="I94" s="7"/>
       <c r="J94" s="1"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="C95" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>474</v>
+        <v>594</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>565</v>
+        <v>512</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>563</v>
       </c>
       <c r="H95" s="7"/>
       <c r="I95" s="7"/>
@@ -5855,17 +6188,23 @@
       <c r="C96" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D96" s="1"/>
+      <c r="D96" s="1" t="s">
+        <v>574</v>
+      </c>
       <c r="E96" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
+      <c r="F96" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>575</v>
+      </c>
       <c r="H96" s="7"/>
       <c r="I96" s="7"/>
       <c r="J96" s="1"/>
     </row>
-    <row r="97" spans="3:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C97" s="1" t="s">
         <v>110</v>
       </c>
@@ -5876,194 +6215,239 @@
         <v>12</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>202</v>
+        <v>642</v>
       </c>
       <c r="H97" s="7"/>
       <c r="I97" s="7"/>
       <c r="J97" s="1"/>
     </row>
-    <row r="98" spans="3:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C98" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>200</v>
+        <v>632</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>197</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>202</v>
+        <v>642</v>
       </c>
       <c r="H98" s="7"/>
       <c r="I98" s="7"/>
       <c r="J98" s="1"/>
     </row>
-    <row r="99" spans="3:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C99" s="1" t="s">
         <v>112</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>197</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>202</v>
+        <v>642</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
       <c r="J99" s="1"/>
     </row>
-    <row r="100" spans="3:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C100" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>197</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>202</v>
+        <v>642</v>
       </c>
       <c r="H100" s="7"/>
       <c r="I100" s="7"/>
       <c r="J100" s="1"/>
     </row>
-    <row r="101" spans="3:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C101" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>205</v>
+        <v>634</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>202</v>
+        <v>642</v>
       </c>
       <c r="H101" s="7"/>
       <c r="I101" s="7"/>
       <c r="J101" s="1"/>
     </row>
-    <row r="102" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C102" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D102" s="1"/>
+      <c r="D102" s="1" t="s">
+        <v>635</v>
+      </c>
       <c r="E102" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
+      <c r="F102" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>642</v>
+      </c>
       <c r="H102" s="7"/>
       <c r="I102" s="7"/>
       <c r="J102" s="1"/>
     </row>
-    <row r="103" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C103" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D103" s="1"/>
+      <c r="D103" s="1" t="s">
+        <v>633</v>
+      </c>
       <c r="E103" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
+      <c r="F103" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>642</v>
+      </c>
       <c r="H103" s="7"/>
       <c r="I103" s="7"/>
       <c r="J103" s="1"/>
     </row>
-    <row r="104" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C104" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D104" s="1"/>
+      <c r="D104" s="1" t="s">
+        <v>595</v>
+      </c>
       <c r="E104" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
+      <c r="F104" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>642</v>
+      </c>
       <c r="H104" s="7"/>
       <c r="I104" s="7"/>
       <c r="J104" s="1"/>
     </row>
-    <row r="105" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C105" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D105" s="1"/>
+      <c r="D105" s="1" t="s">
+        <v>636</v>
+      </c>
       <c r="E105" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
+      <c r="F105" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>642</v>
+      </c>
       <c r="H105" s="7"/>
       <c r="I105" s="7"/>
       <c r="J105" s="1"/>
     </row>
-    <row r="106" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C106" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D106" s="1"/>
+      <c r="D106" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="E106" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
+      <c r="F106" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>642</v>
+      </c>
       <c r="H106" s="7"/>
       <c r="I106" s="7"/>
       <c r="J106" s="1"/>
     </row>
-    <row r="107" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>639</v>
+      </c>
       <c r="C107" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D107" s="1"/>
+      <c r="D107" s="1" t="s">
+        <v>638</v>
+      </c>
       <c r="E107" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
+        <v>600</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>642</v>
+      </c>
       <c r="H107" s="7"/>
       <c r="I107" s="7"/>
       <c r="J107" s="1"/>
     </row>
-    <row r="108" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C108" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D108" s="1"/>
+      <c r="D108" s="1" t="s">
+        <v>640</v>
+      </c>
       <c r="E108" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
+      <c r="F108" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>642</v>
+      </c>
       <c r="H108" s="7"/>
       <c r="I108" s="7"/>
       <c r="J108" s="1"/>
     </row>
-    <row r="109" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C109" s="1" t="s">
         <v>122</v>
       </c>
@@ -6071,27 +6455,37 @@
       <c r="E109" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
+      <c r="F109" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>642</v>
+      </c>
       <c r="H109" s="7"/>
       <c r="I109" s="7"/>
       <c r="J109" s="1"/>
     </row>
-    <row r="110" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C110" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D110" s="1"/>
+      <c r="D110" s="1" t="s">
+        <v>641</v>
+      </c>
       <c r="E110" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
+      <c r="F110" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>642</v>
+      </c>
       <c r="H110" s="7"/>
       <c r="I110" s="7"/>
       <c r="J110" s="1"/>
     </row>
-    <row r="111" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C111" s="1" t="s">
         <v>124</v>
       </c>
@@ -6099,13 +6493,17 @@
       <c r="E111" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
+      <c r="F111" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>642</v>
+      </c>
       <c r="H111" s="7"/>
       <c r="I111" s="7"/>
       <c r="J111" s="1"/>
     </row>
-    <row r="112" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C112" s="1" t="s">
         <v>125</v>
       </c>
@@ -6113,13 +6511,17 @@
       <c r="E112" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
+      <c r="F112" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>642</v>
+      </c>
       <c r="H112" s="7"/>
       <c r="I112" s="7"/>
       <c r="J112" s="1"/>
     </row>
-    <row r="113" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C113" s="1" t="s">
         <v>126</v>
       </c>
@@ -6127,27 +6529,37 @@
       <c r="E113" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
+      <c r="F113" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>642</v>
+      </c>
       <c r="H113" s="7"/>
       <c r="I113" s="7"/>
       <c r="J113" s="1"/>
     </row>
-    <row r="114" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C114" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D114" s="1"/>
+      <c r="D114" s="1" t="s">
+        <v>649</v>
+      </c>
       <c r="E114" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
+      <c r="F114" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>642</v>
+      </c>
       <c r="H114" s="7"/>
       <c r="I114" s="7"/>
       <c r="J114" s="1"/>
     </row>
-    <row r="115" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C115" s="1" t="s">
         <v>128</v>
       </c>
@@ -6155,229 +6567,316 @@
       <c r="E115" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
+      <c r="F115" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>642</v>
+      </c>
       <c r="H115" s="7"/>
       <c r="I115" s="7"/>
       <c r="J115" s="1"/>
     </row>
-    <row r="116" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>647</v>
+      </c>
       <c r="C116" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D116" s="1"/>
+      <c r="D116" s="1" t="s">
+        <v>648</v>
+      </c>
       <c r="E116" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
+      <c r="F116" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>642</v>
+      </c>
       <c r="H116" s="7"/>
       <c r="I116" s="7"/>
       <c r="J116" s="1"/>
     </row>
-    <row r="117" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C117" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D117" s="1"/>
+      <c r="D117" s="1" t="s">
+        <v>613</v>
+      </c>
       <c r="E117" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
+      <c r="F117" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>642</v>
+      </c>
       <c r="H117" s="7"/>
       <c r="I117" s="7"/>
       <c r="J117" s="1"/>
     </row>
-    <row r="118" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C118" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D118" s="1"/>
+      <c r="D118" s="1" t="s">
+        <v>614</v>
+      </c>
       <c r="E118" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
+      <c r="F118" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>642</v>
+      </c>
       <c r="H118" s="7"/>
       <c r="I118" s="7"/>
       <c r="J118" s="1"/>
     </row>
-    <row r="119" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C119" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D119" s="1"/>
+      <c r="D119" s="1" t="s">
+        <v>619</v>
+      </c>
       <c r="E119" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
+      <c r="F119" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>642</v>
+      </c>
       <c r="H119" s="7"/>
       <c r="I119" s="7"/>
       <c r="J119" s="1"/>
     </row>
-    <row r="120" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C120" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D120" s="1"/>
+      <c r="D120" s="1" t="s">
+        <v>615</v>
+      </c>
       <c r="E120" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
+      <c r="F120" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>642</v>
+      </c>
       <c r="H120" s="7"/>
       <c r="I120" s="7"/>
       <c r="J120" s="1"/>
     </row>
-    <row r="121" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C121" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D121" s="1"/>
+      <c r="D121" s="1" t="s">
+        <v>616</v>
+      </c>
       <c r="E121" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
+      <c r="F121" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>642</v>
+      </c>
       <c r="H121" s="7"/>
       <c r="I121" s="7"/>
       <c r="J121" s="1"/>
     </row>
-    <row r="122" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C122" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D122" s="1"/>
+      <c r="D122" s="1" t="s">
+        <v>618</v>
+      </c>
       <c r="E122" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
+      <c r="F122" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>642</v>
+      </c>
       <c r="H122" s="7"/>
       <c r="I122" s="7"/>
       <c r="J122" s="1"/>
     </row>
-    <row r="123" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C123" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D123" s="1"/>
+      <c r="D123" s="1" t="s">
+        <v>646</v>
+      </c>
       <c r="E123" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
+      <c r="F123" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>642</v>
+      </c>
       <c r="H123" s="7"/>
       <c r="I123" s="7"/>
       <c r="J123" s="1"/>
     </row>
-    <row r="124" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C124" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D124" s="1"/>
+      <c r="D124" s="1" t="s">
+        <v>617</v>
+      </c>
       <c r="E124" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
+      <c r="F124" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>642</v>
+      </c>
       <c r="H124" s="7"/>
       <c r="I124" s="7"/>
       <c r="J124" s="1"/>
     </row>
-    <row r="125" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>643</v>
+      </c>
       <c r="C125" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D125" s="1"/>
+      <c r="D125" s="1" t="s">
+        <v>645</v>
+      </c>
       <c r="E125" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
+      <c r="F125" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>642</v>
+      </c>
       <c r="H125" s="7"/>
       <c r="I125" s="7"/>
       <c r="J125" s="1"/>
     </row>
-    <row r="126" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>643</v>
+      </c>
       <c r="C126" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D126" s="1"/>
+      <c r="D126" s="1" t="s">
+        <v>644</v>
+      </c>
       <c r="E126" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
+      <c r="F126" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>642</v>
+      </c>
       <c r="H126" s="7"/>
       <c r="I126" s="7"/>
       <c r="J126" s="1"/>
     </row>
-    <row r="127" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C127" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D127" s="1"/>
+        <v>622</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>624</v>
+      </c>
       <c r="E127" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
+        <v>600</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>623</v>
+      </c>
       <c r="H127" s="7"/>
       <c r="I127" s="7"/>
       <c r="J127" s="1"/>
     </row>
-    <row r="128" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C128" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D128" s="1"/>
+        <v>626</v>
+      </c>
+      <c r="D128" t="s">
+        <v>627</v>
+      </c>
       <c r="E128" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
+        <v>600</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>625</v>
+      </c>
       <c r="H128" s="7"/>
       <c r="I128" s="7"/>
       <c r="J128" s="1"/>
     </row>
-    <row r="129" spans="3:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C129" s="1" t="s">
-        <v>142</v>
+        <v>621</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="E129" s="1"/>
       <c r="F129" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>202</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="G129" s="1"/>
       <c r="H129" s="7"/>
       <c r="I129" s="7"/>
       <c r="J129" s="1"/>
     </row>
-    <row r="130" spans="3:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C130" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>207</v>
+        <v>140</v>
+      </c>
+      <c r="D130" s="27" t="s">
+        <v>597</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>202</v>
+        <v>601</v>
+      </c>
+      <c r="G130" t="s">
+        <v>611</v>
       </c>
       <c r="H130" s="7"/>
       <c r="I130" s="7"/>
@@ -6385,40 +6884,214 @@
     </row>
     <row r="131" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C131" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G131" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="D131" s="27" t="s">
+        <v>596</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="G131" t="s">
+        <v>612</v>
+      </c>
       <c r="H131" s="7"/>
       <c r="I131" s="7"/>
       <c r="J131" s="1"/>
     </row>
     <row r="132" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C132" s="1">
+      <c r="C132" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D132" t="s">
+        <v>598</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="G132" t="s">
+        <v>602</v>
+      </c>
+      <c r="H132" s="7"/>
+      <c r="I132" s="7"/>
+      <c r="J132" s="1"/>
+    </row>
+    <row r="133" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C133" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="G133" s="1"/>
+      <c r="H133" s="7"/>
+      <c r="I133" s="7"/>
+      <c r="J133" s="1"/>
+    </row>
+    <row r="134" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C134" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="G134" s="1"/>
+      <c r="H134" s="7"/>
+      <c r="I134" s="7"/>
+      <c r="J134" s="1"/>
+    </row>
+    <row r="135" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C135" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D135" s="28" t="s">
+        <v>607</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="H135" s="7"/>
+      <c r="I135" s="7"/>
+      <c r="J135" s="1"/>
+    </row>
+    <row r="136" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C136" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D136" s="28" t="s">
+        <v>608</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="H136" s="7"/>
+      <c r="I136" s="7"/>
+      <c r="J136" s="1"/>
+    </row>
+    <row r="137" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C137" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D137" s="27" t="s">
+        <v>620</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="G137" t="s">
+        <v>610</v>
+      </c>
+      <c r="H137" s="7"/>
+      <c r="I137" s="7"/>
+      <c r="J137" s="1"/>
+    </row>
+    <row r="138" spans="3:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="C138" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H138" s="7"/>
+      <c r="I138" t="s">
+        <v>610</v>
+      </c>
+      <c r="J138" s="1"/>
+    </row>
+    <row r="139" spans="3:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="C139" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H139" s="7"/>
+      <c r="I139" s="7"/>
+      <c r="J139" s="1"/>
+    </row>
+    <row r="140" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C140" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G140" s="1"/>
+      <c r="H140" s="7"/>
+      <c r="I140" s="7"/>
+      <c r="J140" s="1"/>
+    </row>
+    <row r="141" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C141" s="1">
         <f>SUBTOTAL(103,Table1[Variable name])</f>
+        <v>139</v>
+      </c>
+      <c r="D141" s="1">
+        <f>SUBTOTAL(103,Table1[Description])</f>
+        <v>133</v>
+      </c>
+      <c r="E141" s="1">
+        <f>SUBTOTAL(103,Table1[Variable type])</f>
+        <v>135</v>
+      </c>
+      <c r="F141" s="1">
+        <f>SUBTOTAL(103,Table1[Data source / Friendly Name])</f>
+        <v>134</v>
+      </c>
+      <c r="G141" s="1">
+        <f>SUBTOTAL(103,Table1[Link Location])</f>
         <v>130</v>
       </c>
-      <c r="D132" s="1">
-        <f>SUBTOTAL(103,Table1[Description])</f>
-        <v>100</v>
-      </c>
-      <c r="E132" s="1">
-        <f>SUBTOTAL(103,Table1[Variable type])</f>
-        <v>87</v>
-      </c>
-      <c r="F132" s="1">
-        <f>SUBTOTAL(103,Table1[Data source / Friendly Name])</f>
-        <v>97</v>
-      </c>
-      <c r="G132" s="1">
-        <f>SUBTOTAL(103,Table1[Link Location])</f>
-        <v>92</v>
-      </c>
-      <c r="H132" s="7"/>
-      <c r="I132" s="7">
+      <c r="H141" s="7"/>
+      <c r="I141" s="7">
         <f>SUBTOTAL(103,Table1[alt link])</f>
-        <v>2</v>
-      </c>
-      <c r="J132" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J141" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -6430,15 +7103,34 @@
     <hyperlink ref="G72" r:id="rId5" location="detailed/5/5343-5378/false/871,870,573,869,36,868,867/any/16896" xr:uid="{9C4E1162-4194-4367-85C4-B5FFE1217F66}"/>
     <hyperlink ref="G71" r:id="rId6" xr:uid="{81CDBAE1-80DD-4078-B6D7-4BA17B737BF8}"/>
     <hyperlink ref="G48" r:id="rId7" xr:uid="{03A0332C-7C38-4905-A9A0-63F977EE58F3}"/>
+    <hyperlink ref="G80" r:id="rId8" location="detailed/5/5343-5378/false/37,871,870,573,869,36,868,867,133/1,2,1310,142,4370,4371,3/16886" xr:uid="{E264B5A8-ABD5-470B-90DA-39482DC7D5BE}"/>
+    <hyperlink ref="G74" r:id="rId9" location="detailed/5/5343-5378/false/871,870,573,869,36,868,867/any/16895" xr:uid="{EAFF6A79-28A9-4901-9BC1-DDEEF28501AB}"/>
+    <hyperlink ref="G95" r:id="rId10" location="detailed/5/5343-5378/false/37,871,870,573,869,36,868,867,133/1,2,1310,142,4370,4371,3/16885" xr:uid="{21C5CBE8-8C3F-4E82-980F-CE56096B2CA2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{9678263F-BAEB-48A3-82AC-EA2CB30D2801}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Draft- Data Dictionary'!C141:I141</xm:f>
+              <xm:sqref>K141</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" high="1" low="1" xr2:uid="{8EE07F88-13A6-4284-BDAE-703BC4E55F90}">
           <x14:colorSeries rgb="FF0070C0"/>
           <x14:colorNegative rgb="FF000000"/>
@@ -6450,24 +7142,8 @@
           <x14:colorLow rgb="FF000000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Draft- Data Dictionary'!C132:I132</xm:f>
-              <xm:sqref>J132</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{9678263F-BAEB-48A3-82AC-EA2CB30D2801}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Draft- Data Dictionary'!C132:I132</xm:f>
-              <xm:sqref>K132</xm:sqref>
+              <xm:f>'Draft- Data Dictionary'!C141:I141</xm:f>
+              <xm:sqref>J141</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -6492,14 +7168,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>456</v>
-      </c>
-      <c r="C1" s="20"/>
+      <c r="B1" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="C1" s="25"/>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -6507,50 +7183,50 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C7" t="s">
         <v>452</v>
-      </c>
-      <c r="C7" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>451</v>
+      </c>
+      <c r="C8" t="s">
         <v>453</v>
-      </c>
-      <c r="C8" t="s">
-        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -6568,8 +7244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83B71F4-A200-4B6E-A013-F06B2443EE11}">
   <dimension ref="C2:E52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6580,19 +7256,19 @@
   <sheetData>
     <row r="2" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="14"/>
       <c r="D3" s="16" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6607,7 +7283,7 @@
     <row r="5" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="14"/>
       <c r="D5" s="16" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>70</v>
@@ -6616,7 +7292,7 @@
     <row r="6" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="14"/>
       <c r="D6" s="16" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>65</v>
@@ -6625,7 +7301,7 @@
     <row r="7" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="14"/>
       <c r="D7" s="16" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>93</v>
@@ -6634,7 +7310,7 @@
     <row r="8" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="14"/>
       <c r="D8" s="16" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>78</v>
@@ -6643,7 +7319,7 @@
     <row r="9" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="14"/>
       <c r="D9" s="16" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>80</v>
@@ -6652,7 +7328,7 @@
     <row r="10" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="14"/>
       <c r="D10" s="16" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>82</v>
@@ -6661,7 +7337,7 @@
     <row r="11" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="14"/>
       <c r="D11" s="16" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>102</v>
@@ -6670,7 +7346,7 @@
     <row r="12" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="D12" s="16" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>98</v>
@@ -6679,7 +7355,7 @@
     <row r="13" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="14"/>
       <c r="D13" s="16" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>107</v>
@@ -6688,7 +7364,7 @@
     <row r="14" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="14"/>
       <c r="D14" s="16" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>94</v>
@@ -6697,7 +7373,7 @@
     <row r="15" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="14"/>
       <c r="D15" s="16" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>79</v>
@@ -6706,7 +7382,7 @@
     <row r="16" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="14"/>
       <c r="D16" s="16" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>81</v>
@@ -6715,7 +7391,7 @@
     <row r="17" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="14"/>
       <c r="D17" s="16" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>83</v>
@@ -6724,7 +7400,7 @@
     <row r="18" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="14"/>
       <c r="D18" s="16" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>103</v>
@@ -6733,7 +7409,7 @@
     <row r="19" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="14"/>
       <c r="D19" s="16" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>99</v>
@@ -6742,7 +7418,7 @@
     <row r="20" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="14"/>
       <c r="D20" s="16" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>108</v>
@@ -6751,7 +7427,7 @@
     <row r="21" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="14"/>
       <c r="D21" s="16" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>106</v>
@@ -6760,7 +7436,7 @@
     <row r="22" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="14"/>
       <c r="D22" s="16" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>68</v>
@@ -6769,7 +7445,7 @@
     <row r="23" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="14"/>
       <c r="D23" s="16" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>69</v>
@@ -6778,7 +7454,7 @@
     <row r="24" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="14"/>
       <c r="D24" s="16" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>104</v>
@@ -6787,7 +7463,7 @@
     <row r="25" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="14"/>
       <c r="D25" s="16" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>86</v>
@@ -6796,7 +7472,7 @@
     <row r="26" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="14"/>
       <c r="D26" s="16" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>88</v>
@@ -6805,16 +7481,16 @@
     <row r="27" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="14"/>
       <c r="D27" s="16" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="28" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="14"/>
       <c r="D28" s="16" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>71</v>
@@ -6823,7 +7499,7 @@
     <row r="29" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="14"/>
       <c r="D29" s="16" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>101</v>
@@ -6832,7 +7508,7 @@
     <row r="30" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="14"/>
       <c r="D30" s="16" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>90</v>
@@ -6841,7 +7517,7 @@
     <row r="31" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="14"/>
       <c r="D31" s="16" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>89</v>
@@ -6850,7 +7526,7 @@
     <row r="32" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C32" s="14"/>
       <c r="D32" s="16" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>92</v>
@@ -6859,7 +7535,7 @@
     <row r="33" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="14"/>
       <c r="D33" s="16" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>91</v>
@@ -6868,7 +7544,7 @@
     <row r="34" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C34" s="14"/>
       <c r="D34" s="16" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>84</v>
@@ -6877,7 +7553,7 @@
     <row r="35" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C35" s="14"/>
       <c r="D35" s="16" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>95</v>
@@ -6886,7 +7562,7 @@
     <row r="36" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C36" s="14"/>
       <c r="D36" s="16" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>73</v>
@@ -6895,16 +7571,16 @@
     <row r="37" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C37" s="14"/>
       <c r="D37" s="16" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="38" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C38" s="14"/>
       <c r="D38" s="16" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>75</v>
@@ -6913,16 +7589,16 @@
     <row r="39" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C39" s="14"/>
       <c r="D39" s="16" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="40" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C40" s="14"/>
       <c r="D40" s="16" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>76</v>
@@ -6931,7 +7607,7 @@
     <row r="41" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C41" s="14"/>
       <c r="D41" s="16" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>100</v>
@@ -6940,7 +7616,7 @@
     <row r="42" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C42" s="14"/>
       <c r="D42" s="16" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E42" s="16" t="s">
         <v>96</v>
@@ -6949,7 +7625,7 @@
     <row r="43" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C43" s="14"/>
       <c r="D43" s="16" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>97</v>
@@ -6958,7 +7634,7 @@
     <row r="44" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C44" s="14"/>
       <c r="D44" s="16" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>72</v>
@@ -6967,25 +7643,25 @@
     <row r="45" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C45" s="14"/>
       <c r="D45" s="16" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="46" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C46" s="14"/>
       <c r="D46" s="16" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="47" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C47" s="14"/>
       <c r="D47" s="16" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>74</v>
@@ -6994,7 +7670,7 @@
     <row r="48" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C48" s="14"/>
       <c r="D48" s="16" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>67</v>
@@ -7003,7 +7679,7 @@
     <row r="49" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C49" s="14"/>
       <c r="D49" s="16" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E49" s="16" t="s">
         <v>87</v>
@@ -7012,7 +7688,7 @@
     <row r="50" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C50" s="14"/>
       <c r="D50" s="16" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E50" s="16" t="s">
         <v>105</v>
@@ -7021,7 +7697,7 @@
     <row r="51" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C51" s="14"/>
       <c r="D51" s="16" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>85</v>
@@ -7030,7 +7706,7 @@
     <row r="52" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C52" s="14"/>
       <c r="D52" s="16" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E52" s="16" t="s">
         <v>77</v>

--- a/data-documentation/data-documentation.xlsx
+++ b/data-documentation/data-documentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lanel\OneDrive\Documents\R\k-entry\data-documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="175" documentId="113_{3FDA6900-4998-4D14-B81F-B921EDAF6AC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5DAB02C8-A6D0-43BB-AD00-45E3D55D18D1}"/>
+  <xr:revisionPtr revIDLastSave="177" documentId="113_{3FDA6900-4998-4D14-B81F-B921EDAF6AC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{40266C78-11AD-42D1-851F-D802A52B04BF}"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="1230" windowWidth="11130" windowHeight="9480" firstSheet="1" activeTab="1" xr2:uid="{32B1247A-B1EE-4DD4-8B74-E50A379266F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{32B1247A-B1EE-4DD4-8B74-E50A379266F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Census Workflow" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="650">
   <si>
     <t>Variable name</t>
   </si>
@@ -2228,15 +2228,15 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4155,7 +4155,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G134" sqref="G134"/>
+      <selection pane="bottomLeft" activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5303,7 +5303,7 @@
       <c r="I52" s="7"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C53" s="1" t="s">
         <v>65</v>
       </c>
@@ -5699,7 +5699,7 @@
       <c r="C72" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D72" s="26" t="s">
+      <c r="D72" s="25" t="s">
         <v>590</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -6866,7 +6866,7 @@
       <c r="C130" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D130" s="27" t="s">
+      <c r="D130" s="26" t="s">
         <v>597</v>
       </c>
       <c r="E130" s="1" t="s">
@@ -6886,7 +6886,7 @@
       <c r="C131" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D131" s="27" t="s">
+      <c r="D131" s="26" t="s">
         <v>596</v>
       </c>
       <c r="E131" s="1" t="s">
@@ -6929,7 +6929,9 @@
       <c r="D133" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="E133" s="1"/>
+      <c r="E133" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="F133" s="1" t="s">
         <v>606</v>
       </c>
@@ -6945,7 +6947,9 @@
       <c r="D134" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="E134" s="1"/>
+      <c r="E134" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="F134" s="1" t="s">
         <v>606</v>
       </c>
@@ -6958,7 +6962,7 @@
       <c r="C135" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D135" s="28" t="s">
+      <c r="D135" s="27" t="s">
         <v>607</v>
       </c>
       <c r="E135" s="1" t="s">
@@ -6978,7 +6982,7 @@
       <c r="C136" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="D136" s="28" t="s">
+      <c r="D136" s="27" t="s">
         <v>608</v>
       </c>
       <c r="E136" s="1" t="s">
@@ -6998,7 +7002,7 @@
       <c r="C137" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="D137" s="27" t="s">
+      <c r="D137" s="26" t="s">
         <v>620</v>
       </c>
       <c r="E137" s="1" t="s">
@@ -7076,7 +7080,7 @@
       </c>
       <c r="E141" s="1">
         <f>SUBTOTAL(103,Table1[Variable type])</f>
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F141" s="1">
         <f>SUBTOTAL(103,Table1[Data source / Friendly Name])</f>
@@ -7115,6 +7119,22 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" high="1" low="1" xr2:uid="{8EE07F88-13A6-4284-BDAE-703BC4E55F90}">
+          <x14:colorSeries rgb="FF0070C0"/>
+          <x14:colorNegative rgb="FF000000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF000000"/>
+          <x14:colorFirst rgb="FF000000"/>
+          <x14:colorLast rgb="FF000000"/>
+          <x14:colorHigh rgb="FF000000"/>
+          <x14:colorLow rgb="FF000000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Draft- Data Dictionary'!C141:I141</xm:f>
+              <xm:sqref>J141</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{9678263F-BAEB-48A3-82AC-EA2CB30D2801}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -7128,22 +7148,6 @@
             <x14:sparkline>
               <xm:f>'Draft- Data Dictionary'!C141:I141</xm:f>
               <xm:sqref>K141</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" high="1" low="1" xr2:uid="{8EE07F88-13A6-4284-BDAE-703BC4E55F90}">
-          <x14:colorSeries rgb="FF0070C0"/>
-          <x14:colorNegative rgb="FF000000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF000000"/>
-          <x14:colorFirst rgb="FF000000"/>
-          <x14:colorLast rgb="FF000000"/>
-          <x14:colorHigh rgb="FF000000"/>
-          <x14:colorLow rgb="FF000000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Draft- Data Dictionary'!C141:I141</xm:f>
-              <xm:sqref>J141</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -7168,10 +7172,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="28" t="s">
         <v>454</v>
       </c>
-      <c r="C1" s="25"/>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
